--- a/Pre_test_by_question.xlsx
+++ b/Pre_test_by_question.xlsx
@@ -603,94 +603,94 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>0.6609195402298851</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="D2">
-        <v>0.4770114942528735</v>
+        <v>0.3294117647058823</v>
       </c>
       <c r="E2">
-        <v>0.603448275862069</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F2">
-        <v>0.367816091954023</v>
+        <v>0.2509803921568627</v>
       </c>
       <c r="G2">
-        <v>0.2988505747126437</v>
+        <v>0.203921568627451</v>
       </c>
       <c r="H2">
-        <v>0.7126436781609196</v>
+        <v>0.4862745098039216</v>
       </c>
       <c r="I2">
-        <v>0.6206896551724138</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="J2">
-        <v>0.603448275862069</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K2">
-        <v>0.4482758620689655</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="L2">
-        <v>0.5862068965517241</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>0.3160919540229885</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="N2">
-        <v>0.7183908045977011</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="O2">
-        <v>0.3218390804597701</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="P2">
-        <v>0.4540229885057471</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="Q2">
-        <v>0.3390804597701149</v>
+        <v>0.2313725490196079</v>
       </c>
       <c r="R2">
-        <v>0.6379310344827587</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="S2">
-        <v>0.2068965517241379</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="T2">
-        <v>0.3563218390804598</v>
+        <v>0.2431372549019608</v>
       </c>
       <c r="U2">
-        <v>0.5344827586206896</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="V2">
-        <v>0.5747126436781609</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="W2">
-        <v>0.4195402298850575</v>
+        <v>0.2862745098039216</v>
       </c>
       <c r="X2">
-        <v>0.4655172413793103</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="Y2">
-        <v>0.4885057471264368</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Z2">
-        <v>0.6379310344827587</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="AA2">
-        <v>0.3218390804597701</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="AB2">
-        <v>0.1839080459770115</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="AC2">
-        <v>0.5862068965517241</v>
+        <v>0.4</v>
       </c>
       <c r="AD2">
-        <v>0.4310344827586207</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="AE2">
-        <v>0.632183908045977</v>
+        <v>0.4392156862745098</v>
       </c>
       <c r="AF2">
-        <v>0.235632183908046</v>
+        <v>0.1607843137254902</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -701,94 +701,94 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>0.4224137931034483</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="D3">
-        <v>0.2543103448275862</v>
+        <v>0.2322834645669291</v>
       </c>
       <c r="E3">
-        <v>0.418103448275862</v>
+        <v>0.3818897637795275</v>
       </c>
       <c r="F3">
-        <v>0.228448275862069</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="G3">
-        <v>0.07327586206896551</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="H3">
-        <v>0.5387931034482759</v>
+        <v>0.4921259842519685</v>
       </c>
       <c r="I3">
-        <v>0.4353448275862069</v>
+        <v>0.3976377952755906</v>
       </c>
       <c r="J3">
-        <v>0.2887931034482759</v>
+        <v>0.2637795275590551</v>
       </c>
       <c r="K3">
-        <v>0.271551724137931</v>
+        <v>0.2480314960629921</v>
       </c>
       <c r="L3">
-        <v>0.4482758620689655</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="M3">
-        <v>0.09482758620689655</v>
+        <v>0.08661417322834646</v>
       </c>
       <c r="N3">
-        <v>0.5775862068965517</v>
+        <v>0.5275590551181102</v>
       </c>
       <c r="O3">
-        <v>0.09913793103448276</v>
+        <v>0.09055118110236221</v>
       </c>
       <c r="P3">
-        <v>0.3189655172413793</v>
+        <v>0.2913385826771653</v>
       </c>
       <c r="Q3">
-        <v>0.2198275862068965</v>
+        <v>0.2007874015748032</v>
       </c>
       <c r="R3">
-        <v>0.4439655172413793</v>
+        <v>0.405511811023622</v>
       </c>
       <c r="S3">
-        <v>0.09051724137931035</v>
+        <v>0.08267716535433071</v>
       </c>
       <c r="T3">
-        <v>0.09913793103448276</v>
+        <v>0.09055118110236221</v>
       </c>
       <c r="U3">
-        <v>0.396551724137931</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="V3">
-        <v>0.418103448275862</v>
+        <v>0.3818897637795275</v>
       </c>
       <c r="W3">
-        <v>0.3620689655172414</v>
+        <v>0.3307086614173229</v>
       </c>
       <c r="X3">
-        <v>0.331896551724138</v>
+        <v>0.3031496062992126</v>
       </c>
       <c r="Y3">
-        <v>0.2974137931034483</v>
+        <v>0.2716535433070866</v>
       </c>
       <c r="Z3">
-        <v>0.5560344827586207</v>
+        <v>0.5078740157480315</v>
       </c>
       <c r="AA3">
-        <v>0.1206896551724138</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="AB3">
-        <v>0.04310344827586207</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="AC3">
-        <v>0.478448275862069</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="AD3">
-        <v>0.1982758620689655</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="AE3">
-        <v>0.4698275862068966</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="AF3">
-        <v>0.08620689655172414</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -802,7 +802,7 @@
         <v>0.7255813953488373</v>
       </c>
       <c r="D4">
-        <v>0.4604651162790698</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="E4">
         <v>0.6744186046511628</v>
@@ -844,7 +844,7 @@
         <v>0.3395348837209302</v>
       </c>
       <c r="R4">
-        <v>0.6186046511627907</v>
+        <v>0.6232558139534884</v>
       </c>
       <c r="S4">
         <v>0.172093023255814</v>
@@ -853,10 +853,10 @@
         <v>0.2744186046511628</v>
       </c>
       <c r="U4">
+        <v>0.5906976744186047</v>
+      </c>
+      <c r="V4">
         <v>0.586046511627907</v>
-      </c>
-      <c r="V4">
-        <v>0.5813953488372093</v>
       </c>
       <c r="W4">
         <v>0.427906976744186</v>
@@ -865,13 +865,13 @@
         <v>0.4604651162790698</v>
       </c>
       <c r="Y4">
-        <v>0.4837209302325581</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="Z4">
-        <v>0.7116279069767442</v>
+        <v>0.7162790697674418</v>
       </c>
       <c r="AA4">
-        <v>0.2651162790697674</v>
+        <v>0.2744186046511628</v>
       </c>
       <c r="AB4">
         <v>0.1627906976744186</v>
@@ -880,10 +880,10 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="AD4">
-        <v>0.3953488372093023</v>
+        <v>0.4</v>
       </c>
       <c r="AE4">
-        <v>0.6744186046511628</v>
+        <v>0.6837209302325581</v>
       </c>
       <c r="AF4">
         <v>0.2325581395348837</v>
@@ -897,94 +897,94 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.4803149606299212</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="D5">
-        <v>0.2401574803149606</v>
+        <v>0.2186379928315412</v>
       </c>
       <c r="E5">
-        <v>0.484251968503937</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="F5">
-        <v>0.2047244094488189</v>
+        <v>0.1863799283154122</v>
       </c>
       <c r="G5">
-        <v>0.1299212598425197</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="H5">
-        <v>0.610236220472441</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I5">
-        <v>0.547244094488189</v>
+        <v>0.4982078853046595</v>
       </c>
       <c r="J5">
-        <v>0.4133858267716535</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="K5">
-        <v>0.2795275590551181</v>
+        <v>0.2544802867383513</v>
       </c>
       <c r="L5">
-        <v>0.4094488188976378</v>
+        <v>0.3727598566308244</v>
       </c>
       <c r="M5">
-        <v>0.1062992125984252</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="N5">
-        <v>0.531496062992126</v>
+        <v>0.4874551971326165</v>
       </c>
       <c r="O5">
-        <v>0.09448818897637795</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="P5">
-        <v>0.2322834645669291</v>
+        <v>0.2114695340501792</v>
       </c>
       <c r="Q5">
-        <v>0.1850393700787402</v>
+        <v>0.1684587813620072</v>
       </c>
       <c r="R5">
-        <v>0.4448818897637795</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="S5">
-        <v>0.07874015748031496</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="T5">
-        <v>0.1141732283464567</v>
+        <v>0.1039426523297491</v>
       </c>
       <c r="U5">
-        <v>0.4803149606299212</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V5">
-        <v>0.4921259842519685</v>
+        <v>0.4551971326164875</v>
       </c>
       <c r="W5">
-        <v>0.3503937007874016</v>
+        <v>0.3261648745519714</v>
       </c>
       <c r="X5">
-        <v>0.2992125984251969</v>
+        <v>0.2724014336917563</v>
       </c>
       <c r="Y5">
-        <v>0.2952755905511811</v>
+        <v>0.2759856630824373</v>
       </c>
       <c r="Z5">
-        <v>0.5590551181102362</v>
+        <v>0.5197132616487455</v>
       </c>
       <c r="AA5">
-        <v>0.1417322834645669</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="AB5">
-        <v>0.06299212598425197</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="AC5">
-        <v>0.484251968503937</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="AD5">
-        <v>0.2322834645669291</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="AE5">
-        <v>0.4763779527559055</v>
+        <v>0.4336917562724014</v>
       </c>
       <c r="AF5">
-        <v>0.1496062992125984</v>
+        <v>0.1362007168458781</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -998,13 +998,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D6">
-        <v>0.4145454545454546</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="E6">
         <v>0.6690909090909091</v>
       </c>
       <c r="F6">
-        <v>0.3418181818181818</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="G6">
         <v>0.3090909090909091</v>
@@ -1040,49 +1040,49 @@
         <v>0.3672727272727273</v>
       </c>
       <c r="R6">
-        <v>0.6618181818181819</v>
+        <v>0.6690909090909091</v>
       </c>
       <c r="S6">
         <v>0.24</v>
       </c>
       <c r="T6">
-        <v>0.3418181818181818</v>
+        <v>0.3527272727272727</v>
       </c>
       <c r="U6">
-        <v>0.5127272727272727</v>
+        <v>0.52</v>
       </c>
       <c r="V6">
-        <v>0.52</v>
+        <v>0.5309090909090909</v>
       </c>
       <c r="W6">
-        <v>0.4290909090909091</v>
+        <v>0.4509090909090909</v>
       </c>
       <c r="X6">
-        <v>0.4436363636363637</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Y6">
-        <v>0.4472727272727273</v>
+        <v>0.4690909090909091</v>
       </c>
       <c r="Z6">
-        <v>0.6472727272727272</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="AA6">
-        <v>0.2727272727272727</v>
+        <v>0.2836363636363636</v>
       </c>
       <c r="AB6">
-        <v>0.1527272727272727</v>
+        <v>0.1563636363636364</v>
       </c>
       <c r="AC6">
-        <v>0.5818181818181818</v>
+        <v>0.64</v>
       </c>
       <c r="AD6">
-        <v>0.4363636363636363</v>
+        <v>0.4618181818181818</v>
       </c>
       <c r="AE6">
-        <v>0.68</v>
+        <v>0.7490909090909091</v>
       </c>
       <c r="AF6">
-        <v>0.2909090909090909</v>
+        <v>0.3127272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1093,10 +1093,10 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>0.4158075601374571</v>
+        <v>0.4192439862542955</v>
       </c>
       <c r="D7">
-        <v>0.3024054982817869</v>
+        <v>0.3058419243986255</v>
       </c>
       <c r="E7">
         <v>0.4845360824742268</v>
@@ -1108,7 +1108,7 @@
         <v>0.1237113402061856</v>
       </c>
       <c r="H7">
-        <v>0.6219931271477663</v>
+        <v>0.6254295532646048</v>
       </c>
       <c r="I7">
         <v>0.5051546391752577</v>
@@ -1147,16 +1147,16 @@
         <v>0.1580756013745704</v>
       </c>
       <c r="U7">
-        <v>0.4639175257731959</v>
+        <v>0.4673539518900344</v>
       </c>
       <c r="V7">
-        <v>0.4639175257731959</v>
+        <v>0.4707903780068728</v>
       </c>
       <c r="W7">
         <v>0.3092783505154639</v>
       </c>
       <c r="X7">
-        <v>0.3298969072164948</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y7">
         <v>0.3092783505154639</v>
@@ -1174,10 +1174,10 @@
         <v>0.5085910652920962</v>
       </c>
       <c r="AD7">
-        <v>0.2611683848797251</v>
+        <v>0.2749140893470791</v>
       </c>
       <c r="AE7">
-        <v>0.4845360824742268</v>
+        <v>0.4982817869415808</v>
       </c>
       <c r="AF7">
         <v>0.1099656357388316</v>
@@ -1191,94 +1191,94 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>0.6585365853658537</v>
+        <v>0.4470198675496689</v>
       </c>
       <c r="D8">
-        <v>0.4780487804878049</v>
+        <v>0.3278145695364238</v>
       </c>
       <c r="E8">
-        <v>0.6097560975609756</v>
+        <v>0.4139072847682119</v>
       </c>
       <c r="F8">
-        <v>0.3902439024390244</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="G8">
-        <v>0.3024390243902439</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="H8">
-        <v>0.7463414634146341</v>
+        <v>0.5066225165562914</v>
       </c>
       <c r="I8">
-        <v>0.6878048780487804</v>
+        <v>0.466887417218543</v>
       </c>
       <c r="J8">
-        <v>0.5853658536585366</v>
+        <v>0.3973509933774834</v>
       </c>
       <c r="K8">
-        <v>0.4195121951219512</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L8">
-        <v>0.6146341463414634</v>
+        <v>0.4172185430463576</v>
       </c>
       <c r="M8">
-        <v>0.3073170731707317</v>
+        <v>0.2086092715231788</v>
       </c>
       <c r="N8">
-        <v>0.7707317073170732</v>
+        <v>0.5231788079470199</v>
       </c>
       <c r="O8">
-        <v>0.4390243902439024</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="P8">
-        <v>0.4682926829268293</v>
+        <v>0.3178807947019868</v>
       </c>
       <c r="Q8">
-        <v>0.3560975609756097</v>
+        <v>0.2417218543046358</v>
       </c>
       <c r="R8">
-        <v>0.7024390243902439</v>
+        <v>0.4768211920529801</v>
       </c>
       <c r="S8">
-        <v>0.2390243902439024</v>
+        <v>0.1622516556291391</v>
       </c>
       <c r="T8">
-        <v>0.4048780487804878</v>
+        <v>0.2748344370860927</v>
       </c>
       <c r="U8">
-        <v>0.6487804878048781</v>
+        <v>0.4403973509933775</v>
       </c>
       <c r="V8">
-        <v>0.6048780487804878</v>
+        <v>0.4105960264900662</v>
       </c>
       <c r="W8">
-        <v>0.424390243902439</v>
+        <v>0.2880794701986755</v>
       </c>
       <c r="X8">
-        <v>0.4878048780487805</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="Y8">
-        <v>0.4975609756097561</v>
+        <v>0.3377483443708609</v>
       </c>
       <c r="Z8">
-        <v>0.6439024390243903</v>
+        <v>0.4370860927152318</v>
       </c>
       <c r="AA8">
-        <v>0.3121951219512195</v>
+        <v>0.2152317880794702</v>
       </c>
       <c r="AB8">
-        <v>0.224390243902439</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="AC8">
-        <v>0.624390243902439</v>
+        <v>0.4271523178807947</v>
       </c>
       <c r="AD8">
-        <v>0.5317073170731708</v>
+        <v>0.3642384105960265</v>
       </c>
       <c r="AE8">
-        <v>0.6634146341463415</v>
+        <v>0.4536423841059603</v>
       </c>
       <c r="AF8">
-        <v>0.3707317073170732</v>
+        <v>0.2549668874172186</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1289,94 +1289,94 @@
         <v>38</v>
       </c>
       <c r="C9">
-        <v>0.5172413793103449</v>
+        <v>0.3881748071979435</v>
       </c>
       <c r="D9">
-        <v>0.2655172413793103</v>
+        <v>0.2030848329048843</v>
       </c>
       <c r="E9">
-        <v>0.4137931034482759</v>
+        <v>0.3084832904884319</v>
       </c>
       <c r="F9">
-        <v>0.2517241379310345</v>
+        <v>0.1902313624678663</v>
       </c>
       <c r="G9">
-        <v>0.1551724137931035</v>
+        <v>0.115681233933162</v>
       </c>
       <c r="H9">
-        <v>0.5827586206896552</v>
+        <v>0.4370179948586118</v>
       </c>
       <c r="I9">
-        <v>0.5206896551724138</v>
+        <v>0.3881748071979435</v>
       </c>
       <c r="J9">
-        <v>0.4586206896551724</v>
+        <v>0.3444730077120823</v>
       </c>
       <c r="K9">
-        <v>0.3758620689655172</v>
+        <v>0.2802056555269923</v>
       </c>
       <c r="L9">
-        <v>0.4586206896551724</v>
+        <v>0.3419023136246787</v>
       </c>
       <c r="M9">
-        <v>0.1586206896551724</v>
+        <v>0.1182519280205656</v>
       </c>
       <c r="N9">
-        <v>0.6517241379310345</v>
+        <v>0.4884318766066838</v>
       </c>
       <c r="O9">
-        <v>0.1896551724137931</v>
+        <v>0.141388174807198</v>
       </c>
       <c r="P9">
-        <v>0.296551724137931</v>
+        <v>0.2236503856041131</v>
       </c>
       <c r="Q9">
-        <v>0.2413793103448276</v>
+        <v>0.1825192802056555</v>
       </c>
       <c r="R9">
-        <v>0.5310344827586206</v>
+        <v>0.3984575835475578</v>
       </c>
       <c r="S9">
-        <v>0.1137931034482759</v>
+        <v>0.08740359897172237</v>
       </c>
       <c r="T9">
-        <v>0.1724137931034483</v>
+        <v>0.1336760925449871</v>
       </c>
       <c r="U9">
-        <v>0.5379310344827586</v>
+        <v>0.4010282776349615</v>
       </c>
       <c r="V9">
-        <v>0.5137931034482759</v>
+        <v>0.3856041131105398</v>
       </c>
       <c r="W9">
-        <v>0.296551724137931</v>
+        <v>0.2236503856041131</v>
       </c>
       <c r="X9">
-        <v>0.2862068965517242</v>
+        <v>0.2133676092544987</v>
       </c>
       <c r="Y9">
-        <v>0.296551724137931</v>
+        <v>0.2236503856041131</v>
       </c>
       <c r="Z9">
-        <v>0.5310344827586206</v>
+        <v>0.3984575835475578</v>
       </c>
       <c r="AA9">
-        <v>0.1310344827586207</v>
+        <v>0.09768637532133675</v>
       </c>
       <c r="AB9">
-        <v>0.06551724137931035</v>
+        <v>0.04884318766066838</v>
       </c>
       <c r="AC9">
-        <v>0.4551724137931035</v>
+        <v>0.3419023136246787</v>
       </c>
       <c r="AD9">
-        <v>0.2413793103448276</v>
+        <v>0.1850899742930591</v>
       </c>
       <c r="AE9">
-        <v>0.5206896551724138</v>
+        <v>0.3958868894601543</v>
       </c>
       <c r="AF9">
-        <v>0.1793103448275862</v>
+        <v>0.1362467866323907</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1387,94 +1387,94 @@
         <v>39</v>
       </c>
       <c r="C10">
-        <v>0.5789473684210527</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="D10">
-        <v>0.3736842105263158</v>
+        <v>0.3697916666666667</v>
       </c>
       <c r="E10">
-        <v>0.5736842105263158</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="F10">
-        <v>0.3947368421052632</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2842105263157895</v>
+        <v>0.28125</v>
       </c>
       <c r="H10">
-        <v>0.7315789473684211</v>
+        <v>0.7239583333333334</v>
       </c>
       <c r="I10">
-        <v>0.7105263157894737</v>
+        <v>0.703125</v>
       </c>
       <c r="J10">
-        <v>0.6263157894736842</v>
+        <v>0.6197916666666666</v>
       </c>
       <c r="K10">
-        <v>0.4842105263157895</v>
+        <v>0.484375</v>
       </c>
       <c r="L10">
-        <v>0.6052631578947368</v>
+        <v>0.5989583333333334</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.296875</v>
       </c>
       <c r="N10">
-        <v>0.7789473684210526</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="O10">
-        <v>0.3526315789473684</v>
+        <v>0.3489583333333333</v>
       </c>
       <c r="P10">
-        <v>0.4263157894736842</v>
+        <v>0.421875</v>
       </c>
       <c r="Q10">
-        <v>0.3736842105263158</v>
+        <v>0.3697916666666667</v>
       </c>
       <c r="R10">
-        <v>0.6631578947368421</v>
+        <v>0.65625</v>
       </c>
       <c r="S10">
-        <v>0.2368421052631579</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="T10">
-        <v>0.3684210526315789</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="U10">
-        <v>0.5526315789473685</v>
+        <v>0.546875</v>
       </c>
       <c r="V10">
-        <v>0.4736842105263158</v>
+        <v>0.4739583333333333</v>
       </c>
       <c r="W10">
-        <v>0.4263157894736842</v>
+        <v>0.421875</v>
       </c>
       <c r="X10">
-        <v>0.4789473684210526</v>
+        <v>0.4739583333333333</v>
       </c>
       <c r="Y10">
-        <v>0.531578947368421</v>
+        <v>0.5260416666666666</v>
       </c>
       <c r="Z10">
-        <v>0.6894736842105263</v>
+        <v>0.6875</v>
       </c>
       <c r="AA10">
-        <v>0.3105263157894737</v>
+        <v>0.3125</v>
       </c>
       <c r="AB10">
-        <v>0.2157894736842105</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="AC10">
-        <v>0.6631578947368421</v>
+        <v>0.65625</v>
       </c>
       <c r="AD10">
-        <v>0.4947368421052631</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="AE10">
-        <v>0.6894736842105263</v>
+        <v>0.6822916666666666</v>
       </c>
       <c r="AF10">
-        <v>0.2894736842105263</v>
+        <v>0.2864583333333333</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1500,79 +1500,79 @@
         <v>0.161993769470405</v>
       </c>
       <c r="H11">
-        <v>0.6791277258566978</v>
+        <v>0.6822429906542056</v>
       </c>
       <c r="I11">
         <v>0.5358255451713395</v>
       </c>
       <c r="J11">
-        <v>0.4330218068535825</v>
+        <v>0.4361370716510903</v>
       </c>
       <c r="K11">
-        <v>0.3177570093457944</v>
+        <v>0.3239875389408099</v>
       </c>
       <c r="L11">
-        <v>0.4080996884735202</v>
+        <v>0.4143302180685358</v>
       </c>
       <c r="M11">
-        <v>0.1588785046728972</v>
+        <v>0.161993769470405</v>
       </c>
       <c r="N11">
-        <v>0.6635514018691588</v>
+        <v>0.67601246105919</v>
       </c>
       <c r="O11">
         <v>0.1277258566978193</v>
       </c>
       <c r="P11">
-        <v>0.3208722741433022</v>
+        <v>0.3271028037383177</v>
       </c>
       <c r="Q11">
-        <v>0.264797507788162</v>
+        <v>0.2679127725856698</v>
       </c>
       <c r="R11">
-        <v>0.5919003115264797</v>
+        <v>0.6074766355140186</v>
       </c>
       <c r="S11">
-        <v>0.102803738317757</v>
+        <v>0.1059190031152648</v>
       </c>
       <c r="T11">
-        <v>0.1993769470404984</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="U11">
-        <v>0.6261682242990654</v>
+        <v>0.6417445482866043</v>
       </c>
       <c r="V11">
-        <v>0.5856697819314641</v>
+        <v>0.6012461059190031</v>
       </c>
       <c r="W11">
-        <v>0.3644859813084112</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="X11">
-        <v>0.2928348909657321</v>
+        <v>0.2990654205607476</v>
       </c>
       <c r="Y11">
-        <v>0.308411214953271</v>
+        <v>0.3146417445482866</v>
       </c>
       <c r="Z11">
-        <v>0.5451713395638629</v>
+        <v>0.557632398753894</v>
       </c>
       <c r="AA11">
-        <v>0.1557632398753894</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="AB11">
         <v>0.0778816199376947</v>
       </c>
       <c r="AC11">
-        <v>0.5887850467289719</v>
+        <v>0.6105919003115264</v>
       </c>
       <c r="AD11">
-        <v>0.308411214953271</v>
+        <v>0.3208722741433022</v>
       </c>
       <c r="AE11">
-        <v>0.5607476635514018</v>
+        <v>0.5825545171339563</v>
       </c>
       <c r="AF11">
-        <v>0.1401869158878505</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_test_by_question.xlsx
+++ b/Pre_test_by_question.xlsx
@@ -606,7 +606,7 @@
         <v>0.4509803921568628</v>
       </c>
       <c r="D2">
-        <v>0.3294117647058823</v>
+        <v>0.3254901960784314</v>
       </c>
       <c r="E2">
         <v>0.4117647058823529</v>
@@ -642,7 +642,7 @@
         <v>0.2196078431372549</v>
       </c>
       <c r="P2">
-        <v>0.3137254901960784</v>
+        <v>0.3098039215686275</v>
       </c>
       <c r="Q2">
         <v>0.2313725490196079</v>
@@ -687,7 +687,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="AE2">
-        <v>0.4392156862745098</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="AF2">
         <v>0.1607843137254902</v>
@@ -710,7 +710,7 @@
         <v>0.3818897637795275</v>
       </c>
       <c r="F3">
-        <v>0.2125984251968504</v>
+        <v>0.2086614173228346</v>
       </c>
       <c r="G3">
         <v>0.06692913385826772</v>
@@ -779,13 +779,13 @@
         <v>0.03937007874015748</v>
       </c>
       <c r="AC3">
-        <v>0.4409448818897638</v>
+        <v>0.437007874015748</v>
       </c>
       <c r="AD3">
         <v>0.1811023622047244</v>
       </c>
       <c r="AE3">
-        <v>0.4330708661417323</v>
+        <v>0.4291338582677166</v>
       </c>
       <c r="AF3">
         <v>0.07874015748031496</v>
@@ -802,7 +802,7 @@
         <v>0.7255813953488373</v>
       </c>
       <c r="D4">
-        <v>0.4651162790697674</v>
+        <v>0.4604651162790698</v>
       </c>
       <c r="E4">
         <v>0.6744186046511628</v>
@@ -844,7 +844,7 @@
         <v>0.3395348837209302</v>
       </c>
       <c r="R4">
-        <v>0.6232558139534884</v>
+        <v>0.6186046511627907</v>
       </c>
       <c r="S4">
         <v>0.172093023255814</v>
@@ -853,10 +853,10 @@
         <v>0.2744186046511628</v>
       </c>
       <c r="U4">
-        <v>0.5906976744186047</v>
+        <v>0.586046511627907</v>
       </c>
       <c r="V4">
-        <v>0.586046511627907</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="W4">
         <v>0.427906976744186</v>
@@ -865,13 +865,13 @@
         <v>0.4604651162790698</v>
       </c>
       <c r="Y4">
-        <v>0.4883720930232558</v>
+        <v>0.4837209302325581</v>
       </c>
       <c r="Z4">
-        <v>0.7162790697674418</v>
+        <v>0.7116279069767442</v>
       </c>
       <c r="AA4">
-        <v>0.2744186046511628</v>
+        <v>0.2651162790697674</v>
       </c>
       <c r="AB4">
         <v>0.1627906976744186</v>
@@ -880,10 +880,10 @@
         <v>0.6279069767441861</v>
       </c>
       <c r="AD4">
-        <v>0.4</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="AE4">
-        <v>0.6837209302325581</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="AF4">
         <v>0.2325581395348837</v>
@@ -897,7 +897,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.4408602150537634</v>
+        <v>0.4372759856630825</v>
       </c>
       <c r="D5">
         <v>0.2186379928315412</v>
@@ -930,7 +930,7 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="N5">
-        <v>0.4874551971326165</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O5">
         <v>0.08602150537634409</v>
@@ -942,7 +942,7 @@
         <v>0.1684587813620072</v>
       </c>
       <c r="R5">
-        <v>0.4086021505376344</v>
+        <v>0.4050179211469534</v>
       </c>
       <c r="S5">
         <v>0.07168458781362007</v>
@@ -951,22 +951,22 @@
         <v>0.1039426523297491</v>
       </c>
       <c r="U5">
-        <v>0.4444444444444444</v>
+        <v>0.4372759856630825</v>
       </c>
       <c r="V5">
-        <v>0.4551971326164875</v>
+        <v>0.4480286738351255</v>
       </c>
       <c r="W5">
-        <v>0.3261648745519714</v>
+        <v>0.3189964157706093</v>
       </c>
       <c r="X5">
         <v>0.2724014336917563</v>
       </c>
       <c r="Y5">
-        <v>0.2759856630824373</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="Z5">
-        <v>0.5197132616487455</v>
+        <v>0.5089605734767025</v>
       </c>
       <c r="AA5">
         <v>0.1290322580645161</v>
@@ -978,7 +978,7 @@
         <v>0.4408602150537634</v>
       </c>
       <c r="AD5">
-        <v>0.2150537634408602</v>
+        <v>0.2114695340501792</v>
       </c>
       <c r="AE5">
         <v>0.4336917562724014</v>
@@ -998,13 +998,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D6">
-        <v>0.4181818181818182</v>
+        <v>0.4145454545454546</v>
       </c>
       <c r="E6">
         <v>0.6690909090909091</v>
       </c>
       <c r="F6">
-        <v>0.3454545454545455</v>
+        <v>0.3418181818181818</v>
       </c>
       <c r="G6">
         <v>0.3090909090909091</v>
@@ -1040,49 +1040,49 @@
         <v>0.3672727272727273</v>
       </c>
       <c r="R6">
-        <v>0.6690909090909091</v>
+        <v>0.6618181818181819</v>
       </c>
       <c r="S6">
         <v>0.24</v>
       </c>
       <c r="T6">
-        <v>0.3527272727272727</v>
+        <v>0.3418181818181818</v>
       </c>
       <c r="U6">
+        <v>0.5127272727272727</v>
+      </c>
+      <c r="V6">
         <v>0.52</v>
       </c>
-      <c r="V6">
-        <v>0.5309090909090909</v>
-      </c>
       <c r="W6">
-        <v>0.4509090909090909</v>
+        <v>0.4290909090909091</v>
       </c>
       <c r="X6">
-        <v>0.4545454545454545</v>
+        <v>0.4436363636363637</v>
       </c>
       <c r="Y6">
-        <v>0.4690909090909091</v>
+        <v>0.4472727272727273</v>
       </c>
       <c r="Z6">
-        <v>0.6909090909090909</v>
+        <v>0.6472727272727272</v>
       </c>
       <c r="AA6">
-        <v>0.2836363636363636</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AB6">
-        <v>0.1563636363636364</v>
+        <v>0.1527272727272727</v>
       </c>
       <c r="AC6">
-        <v>0.64</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="AD6">
-        <v>0.4618181818181818</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="AE6">
-        <v>0.7490909090909091</v>
+        <v>0.68</v>
       </c>
       <c r="AF6">
-        <v>0.3127272727272727</v>
+        <v>0.2909090909090909</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1093,10 +1093,10 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>0.4192439862542955</v>
+        <v>0.4158075601374571</v>
       </c>
       <c r="D7">
-        <v>0.3058419243986255</v>
+        <v>0.3024054982817869</v>
       </c>
       <c r="E7">
         <v>0.4845360824742268</v>
@@ -1108,7 +1108,7 @@
         <v>0.1237113402061856</v>
       </c>
       <c r="H7">
-        <v>0.6254295532646048</v>
+        <v>0.6219931271477663</v>
       </c>
       <c r="I7">
         <v>0.5051546391752577</v>
@@ -1147,16 +1147,16 @@
         <v>0.1580756013745704</v>
       </c>
       <c r="U7">
-        <v>0.4673539518900344</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="V7">
-        <v>0.4707903780068728</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="W7">
         <v>0.3092783505154639</v>
       </c>
       <c r="X7">
-        <v>0.3333333333333333</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="Y7">
         <v>0.3092783505154639</v>
@@ -1174,10 +1174,10 @@
         <v>0.5085910652920962</v>
       </c>
       <c r="AD7">
-        <v>0.2749140893470791</v>
+        <v>0.2611683848797251</v>
       </c>
       <c r="AE7">
-        <v>0.4982817869415808</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="AF7">
         <v>0.1099656357388316</v>
@@ -1194,7 +1194,7 @@
         <v>0.4470198675496689</v>
       </c>
       <c r="D8">
-        <v>0.3278145695364238</v>
+        <v>0.3245033112582781</v>
       </c>
       <c r="E8">
         <v>0.4139072847682119</v>
@@ -1263,22 +1263,22 @@
         <v>0.4370860927152318</v>
       </c>
       <c r="AA8">
-        <v>0.2152317880794702</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="AB8">
         <v>0.152317880794702</v>
       </c>
       <c r="AC8">
-        <v>0.4271523178807947</v>
+        <v>0.423841059602649</v>
       </c>
       <c r="AD8">
-        <v>0.3642384105960265</v>
+        <v>0.3609271523178808</v>
       </c>
       <c r="AE8">
-        <v>0.4536423841059603</v>
+        <v>0.4503311258278146</v>
       </c>
       <c r="AF8">
-        <v>0.2549668874172186</v>
+        <v>0.2516556291390729</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1289,28 +1289,28 @@
         <v>38</v>
       </c>
       <c r="C9">
-        <v>0.3881748071979435</v>
+        <v>0.3856041131105398</v>
       </c>
       <c r="D9">
-        <v>0.2030848329048843</v>
+        <v>0.1979434447300771</v>
       </c>
       <c r="E9">
         <v>0.3084832904884319</v>
       </c>
       <c r="F9">
-        <v>0.1902313624678663</v>
+        <v>0.1876606683804627</v>
       </c>
       <c r="G9">
         <v>0.115681233933162</v>
       </c>
       <c r="H9">
-        <v>0.4370179948586118</v>
+        <v>0.4344473007712082</v>
       </c>
       <c r="I9">
         <v>0.3881748071979435</v>
       </c>
       <c r="J9">
-        <v>0.3444730077120823</v>
+        <v>0.3419023136246787</v>
       </c>
       <c r="K9">
         <v>0.2802056555269923</v>
@@ -1322,43 +1322,43 @@
         <v>0.1182519280205656</v>
       </c>
       <c r="N9">
-        <v>0.4884318766066838</v>
+        <v>0.4858611825192802</v>
       </c>
       <c r="O9">
         <v>0.141388174807198</v>
       </c>
       <c r="P9">
-        <v>0.2236503856041131</v>
+        <v>0.2210796915167095</v>
       </c>
       <c r="Q9">
-        <v>0.1825192802056555</v>
+        <v>0.1799485861182519</v>
       </c>
       <c r="R9">
-        <v>0.3984575835475578</v>
+        <v>0.3958868894601543</v>
       </c>
       <c r="S9">
-        <v>0.08740359897172237</v>
+        <v>0.08483290488431877</v>
       </c>
       <c r="T9">
-        <v>0.1336760925449871</v>
+        <v>0.1285347043701799</v>
       </c>
       <c r="U9">
         <v>0.4010282776349615</v>
       </c>
       <c r="V9">
-        <v>0.3856041131105398</v>
+        <v>0.3830334190231363</v>
       </c>
       <c r="W9">
-        <v>0.2236503856041131</v>
+        <v>0.2210796915167095</v>
       </c>
       <c r="X9">
         <v>0.2133676092544987</v>
       </c>
       <c r="Y9">
-        <v>0.2236503856041131</v>
+        <v>0.2210796915167095</v>
       </c>
       <c r="Z9">
-        <v>0.3984575835475578</v>
+        <v>0.3958868894601543</v>
       </c>
       <c r="AA9">
         <v>0.09768637532133675</v>
@@ -1367,16 +1367,16 @@
         <v>0.04884318766066838</v>
       </c>
       <c r="AC9">
-        <v>0.3419023136246787</v>
+        <v>0.3393316195372751</v>
       </c>
       <c r="AD9">
-        <v>0.1850899742930591</v>
+        <v>0.1799485861182519</v>
       </c>
       <c r="AE9">
-        <v>0.3958868894601543</v>
+        <v>0.3881748071979435</v>
       </c>
       <c r="AF9">
-        <v>0.1362467866323907</v>
+        <v>0.1336760925449871</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1393,10 +1393,10 @@
         <v>0.3697916666666667</v>
       </c>
       <c r="E10">
-        <v>0.5729166666666666</v>
+        <v>0.5677083333333334</v>
       </c>
       <c r="F10">
-        <v>0.3958333333333333</v>
+        <v>0.390625</v>
       </c>
       <c r="G10">
         <v>0.28125</v>
@@ -1411,7 +1411,7 @@
         <v>0.6197916666666666</v>
       </c>
       <c r="K10">
-        <v>0.484375</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L10">
         <v>0.5989583333333334</v>
@@ -1435,7 +1435,7 @@
         <v>0.65625</v>
       </c>
       <c r="S10">
-        <v>0.2395833333333333</v>
+        <v>0.234375</v>
       </c>
       <c r="T10">
         <v>0.3645833333333333</v>
@@ -1444,7 +1444,7 @@
         <v>0.546875</v>
       </c>
       <c r="V10">
-        <v>0.4739583333333333</v>
+        <v>0.46875</v>
       </c>
       <c r="W10">
         <v>0.421875</v>
@@ -1456,10 +1456,10 @@
         <v>0.5260416666666666</v>
       </c>
       <c r="Z10">
-        <v>0.6875</v>
+        <v>0.6822916666666666</v>
       </c>
       <c r="AA10">
-        <v>0.3125</v>
+        <v>0.3072916666666667</v>
       </c>
       <c r="AB10">
         <v>0.2135416666666667</v>
@@ -1500,79 +1500,79 @@
         <v>0.161993769470405</v>
       </c>
       <c r="H11">
-        <v>0.6822429906542056</v>
+        <v>0.6791277258566978</v>
       </c>
       <c r="I11">
         <v>0.5358255451713395</v>
       </c>
       <c r="J11">
-        <v>0.4361370716510903</v>
+        <v>0.4330218068535825</v>
       </c>
       <c r="K11">
-        <v>0.3239875389408099</v>
+        <v>0.3177570093457944</v>
       </c>
       <c r="L11">
-        <v>0.4143302180685358</v>
+        <v>0.4080996884735202</v>
       </c>
       <c r="M11">
-        <v>0.161993769470405</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="N11">
-        <v>0.67601246105919</v>
+        <v>0.6635514018691588</v>
       </c>
       <c r="O11">
         <v>0.1277258566978193</v>
       </c>
       <c r="P11">
-        <v>0.3271028037383177</v>
+        <v>0.3208722741433022</v>
       </c>
       <c r="Q11">
-        <v>0.2679127725856698</v>
+        <v>0.264797507788162</v>
       </c>
       <c r="R11">
-        <v>0.6074766355140186</v>
+        <v>0.5919003115264797</v>
       </c>
       <c r="S11">
-        <v>0.1059190031152648</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="T11">
-        <v>0.205607476635514</v>
+        <v>0.1993769470404984</v>
       </c>
       <c r="U11">
-        <v>0.6417445482866043</v>
+        <v>0.6261682242990654</v>
       </c>
       <c r="V11">
-        <v>0.6012461059190031</v>
+        <v>0.5856697819314641</v>
       </c>
       <c r="W11">
-        <v>0.3738317757009346</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="X11">
-        <v>0.2990654205607476</v>
+        <v>0.2928348909657321</v>
       </c>
       <c r="Y11">
-        <v>0.3146417445482866</v>
+        <v>0.308411214953271</v>
       </c>
       <c r="Z11">
-        <v>0.557632398753894</v>
+        <v>0.5451713395638629</v>
       </c>
       <c r="AA11">
-        <v>0.1588785046728972</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="AB11">
         <v>0.0778816199376947</v>
       </c>
       <c r="AC11">
-        <v>0.6105919003115264</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="AD11">
-        <v>0.3208722741433022</v>
+        <v>0.308411214953271</v>
       </c>
       <c r="AE11">
-        <v>0.5825545171339563</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="AF11">
-        <v>0.1495327102803738</v>
+        <v>0.1401869158878505</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_test_by_question.xlsx
+++ b/Pre_test_by_question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>PRE Q1</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>2018 112</t>
+  </si>
+  <si>
+    <t>2019 111</t>
+  </si>
+  <si>
+    <t>2019 112</t>
+  </si>
+  <si>
+    <t>2020 111</t>
+  </si>
+  <si>
+    <t>2020 112</t>
   </si>
   <si>
     <t>mean</t>
@@ -494,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1547,94 +1559,474 @@
         <v>40</v>
       </c>
       <c r="B12">
-        <v>0.4958934021049048</v>
+        <v>0.6681818181818182</v>
       </c>
       <c r="C12">
-        <v>0.3123324712216428</v>
+        <v>0.4454545454545454</v>
       </c>
       <c r="D12">
-        <v>0.4791911525970519</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="E12">
-        <v>0.269342132198762</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="F12">
-        <v>0.1860574142975049</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="G12">
-        <v>0.6076849239323254</v>
+        <v>0.7772727272727272</v>
       </c>
       <c r="H12">
-        <v>0.5349747575103811</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="I12">
-        <v>0.4548703180163757</v>
+        <v>0.6045454545454545</v>
       </c>
       <c r="J12">
-        <v>0.3344648239289104</v>
+        <v>0.4454545454545454</v>
       </c>
       <c r="K12">
-        <v>0.4680213218951173</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="L12">
-        <v>0.1952565307230256</v>
+        <v>0.3681818181818182</v>
       </c>
       <c r="M12">
-        <v>0.6235550162197019</v>
+        <v>0.8136363636363636</v>
       </c>
       <c r="N12">
-        <v>0.2245440510868461</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="O12">
-        <v>0.3338627464140415</v>
+        <v>0.4954545454545455</v>
       </c>
       <c r="P12">
-        <v>0.2614545064357002</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="Q12">
-        <v>0.5183187550065025</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="R12">
-        <v>0.1384678050997854</v>
+        <v>0.2454545454545455</v>
       </c>
       <c r="S12">
-        <v>0.2179272898008091</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="T12">
-        <v>0.4741346755481252</v>
+        <v>0.6772727272727272</v>
       </c>
       <c r="U12">
-        <v>0.4635437402414822</v>
+        <v>0.6681818181818182</v>
       </c>
       <c r="V12">
-        <v>0.3397775966366209</v>
+        <v>0.4590909090909091</v>
       </c>
       <c r="W12">
-        <v>0.343848314731456</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="X12">
-        <v>0.3507357006469753</v>
+        <v>0.5045454545454545</v>
       </c>
       <c r="Y12">
-        <v>0.53731835425856</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="Z12">
-        <v>0.1930893712627379</v>
+        <v>0.3363636363636364</v>
       </c>
       <c r="AA12">
-        <v>0.1085293088400324</v>
+        <v>0.2136363636363636</v>
       </c>
       <c r="AB12">
-        <v>0.5004392038792872</v>
+        <v>0.6681818181818182</v>
       </c>
       <c r="AC12">
-        <v>0.3118440688489129</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="AD12">
-        <v>0.5214698113928942</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="AE12">
-        <v>0.1821135025139733</v>
+        <v>0.3045454545454546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>0.4405797101449275</v>
+      </c>
+      <c r="C13">
+        <v>0.3159420289855073</v>
+      </c>
+      <c r="D13">
+        <v>0.4608695652173913</v>
+      </c>
+      <c r="E13">
+        <v>0.2840579710144928</v>
+      </c>
+      <c r="F13">
+        <v>0.1159420289855072</v>
+      </c>
+      <c r="G13">
+        <v>0.6231884057971014</v>
+      </c>
+      <c r="H13">
+        <v>0.4840579710144928</v>
+      </c>
+      <c r="I13">
+        <v>0.4057971014492754</v>
+      </c>
+      <c r="J13">
+        <v>0.3101449275362319</v>
+      </c>
+      <c r="K13">
+        <v>0.527536231884058</v>
+      </c>
+      <c r="L13">
+        <v>0.1652173913043478</v>
+      </c>
+      <c r="M13">
+        <v>0.6376811594202898</v>
+      </c>
+      <c r="N13">
+        <v>0.1710144927536232</v>
+      </c>
+      <c r="O13">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="P13">
+        <v>0.2463768115942029</v>
+      </c>
+      <c r="Q13">
+        <v>0.4898550724637681</v>
+      </c>
+      <c r="R13">
+        <v>0.08405797101449275</v>
+      </c>
+      <c r="S13">
+        <v>0.1681159420289855</v>
+      </c>
+      <c r="T13">
+        <v>0.5971014492753624</v>
+      </c>
+      <c r="U13">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="V13">
+        <v>0.3159420289855073</v>
+      </c>
+      <c r="W13">
+        <v>0.2753623188405797</v>
+      </c>
+      <c r="X13">
+        <v>0.2869565217391304</v>
+      </c>
+      <c r="Y13">
+        <v>0.5507246376811594</v>
+      </c>
+      <c r="Z13">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="AA13">
+        <v>0.05507246376811594</v>
+      </c>
+      <c r="AB13">
+        <v>0.5159420289855072</v>
+      </c>
+      <c r="AC13">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="AD13">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="AE13">
+        <v>0.1565217391304348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>0.6932270916334662</v>
+      </c>
+      <c r="C14">
+        <v>0.4262948207171315</v>
+      </c>
+      <c r="D14">
+        <v>0.5697211155378487</v>
+      </c>
+      <c r="E14">
+        <v>0.5776892430278885</v>
+      </c>
+      <c r="F14">
+        <v>0.2430278884462151</v>
+      </c>
+      <c r="G14">
+        <v>0.6055776892430279</v>
+      </c>
+      <c r="H14">
+        <v>0.6733067729083665</v>
+      </c>
+      <c r="I14">
+        <v>0.2111553784860558</v>
+      </c>
+      <c r="J14">
+        <v>0.5896414342629482</v>
+      </c>
+      <c r="K14">
+        <v>0.4382470119521912</v>
+      </c>
+      <c r="L14">
+        <v>0.2709163346613546</v>
+      </c>
+      <c r="M14">
+        <v>0.4900398406374502</v>
+      </c>
+      <c r="N14">
+        <v>0.2191235059760956</v>
+      </c>
+      <c r="O14">
+        <v>0.5816733067729084</v>
+      </c>
+      <c r="P14">
+        <v>0.3227091633466135</v>
+      </c>
+      <c r="Q14">
+        <v>0.4422310756972112</v>
+      </c>
+      <c r="R14">
+        <v>0.2948207171314741</v>
+      </c>
+      <c r="S14">
+        <v>0.1952191235059761</v>
+      </c>
+      <c r="T14">
+        <v>0.3107569721115538</v>
+      </c>
+      <c r="U14">
+        <v>0.2908366533864542</v>
+      </c>
+      <c r="V14">
+        <v>0.2430278884462151</v>
+      </c>
+      <c r="W14">
+        <v>0.6932270916334662</v>
+      </c>
+      <c r="X14">
+        <v>0.4462151394422311</v>
+      </c>
+      <c r="Y14">
+        <v>0.203187250996016</v>
+      </c>
+      <c r="Z14">
+        <v>0.450199203187251</v>
+      </c>
+      <c r="AA14">
+        <v>0.2589641434262948</v>
+      </c>
+      <c r="AB14">
+        <v>0.4860557768924303</v>
+      </c>
+      <c r="AC14">
+        <v>0.6812749003984063</v>
+      </c>
+      <c r="AD14">
+        <v>0.8286852589641435</v>
+      </c>
+      <c r="AE14">
+        <v>0.6055776892430279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0.5261780104712042</v>
+      </c>
+      <c r="C15">
+        <v>0.2146596858638743</v>
+      </c>
+      <c r="D15">
+        <v>0.4136125654450262</v>
+      </c>
+      <c r="E15">
+        <v>0.4319371727748691</v>
+      </c>
+      <c r="F15">
+        <v>0.2329842931937173</v>
+      </c>
+      <c r="G15">
+        <v>0.5785340314136126</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.2041884816753927</v>
+      </c>
+      <c r="J15">
+        <v>0.4764397905759162</v>
+      </c>
+      <c r="K15">
+        <v>0.2591623036649215</v>
+      </c>
+      <c r="L15">
+        <v>0.1989528795811518</v>
+      </c>
+      <c r="M15">
+        <v>0.4869109947643979</v>
+      </c>
+      <c r="N15">
+        <v>0.1361256544502618</v>
+      </c>
+      <c r="O15">
+        <v>0.3664921465968586</v>
+      </c>
+      <c r="P15">
+        <v>0.2225130890052356</v>
+      </c>
+      <c r="Q15">
+        <v>0.2670157068062827</v>
+      </c>
+      <c r="R15">
+        <v>0.1727748691099476</v>
+      </c>
+      <c r="S15">
+        <v>0.1492146596858639</v>
+      </c>
+      <c r="T15">
+        <v>0.2068062827225131</v>
+      </c>
+      <c r="U15">
+        <v>0.1780104712041885</v>
+      </c>
+      <c r="V15">
+        <v>0.1387434554973822</v>
+      </c>
+      <c r="W15">
+        <v>0.5654450261780105</v>
+      </c>
+      <c r="X15">
+        <v>0.3848167539267016</v>
+      </c>
+      <c r="Y15">
+        <v>0.1282722513089005</v>
+      </c>
+      <c r="Z15">
+        <v>0.2722513089005236</v>
+      </c>
+      <c r="AA15">
+        <v>0.1596858638743456</v>
+      </c>
+      <c r="AB15">
+        <v>0.3717277486910995</v>
+      </c>
+      <c r="AC15">
+        <v>0.5418848167539267</v>
+      </c>
+      <c r="AD15">
+        <v>0.643979057591623</v>
+      </c>
+      <c r="AE15">
+        <v>0.5471204188481675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>0.5205071893914617</v>
+      </c>
+      <c r="C16">
+        <v>0.3232625566598205</v>
+      </c>
+      <c r="D16">
+        <v>0.4934887174927184</v>
+      </c>
+      <c r="E16">
+        <v>0.3179101480315168</v>
+      </c>
+      <c r="F16">
+        <v>0.1985572200623726</v>
+      </c>
+      <c r="G16">
+        <v>0.6186730066464089</v>
+      </c>
+      <c r="H16">
+        <v>0.5492093214889181</v>
+      </c>
+      <c r="I16">
+        <v>0.4267421140228525</v>
+      </c>
+      <c r="J16">
+        <v>0.3690234955084818</v>
+      </c>
+      <c r="K16">
+        <v>0.469849002798544</v>
+      </c>
+      <c r="L16">
+        <v>0.2111309807827806</v>
+      </c>
+      <c r="M16">
+        <v>0.618844180046823</v>
+      </c>
+      <c r="N16">
+        <v>0.2271996480813822</v>
+      </c>
+      <c r="O16">
+        <v>0.3776139492179774</v>
+      </c>
+      <c r="P16">
+        <v>0.2725167883852831</v>
+      </c>
+      <c r="Q16">
+        <v>0.5065271652945139</v>
+      </c>
+      <c r="R16">
+        <v>0.1558418681220224</v>
+      </c>
+      <c r="S16">
+        <v>0.2214938237371304</v>
+      </c>
+      <c r="T16">
+        <v>0.4666631562045291</v>
+      </c>
+      <c r="U16">
+        <v>0.4485509087142055</v>
+      </c>
+      <c r="V16">
+        <v>0.3253271605990158</v>
+      </c>
+      <c r="W16">
+        <v>0.3902447624911219</v>
+      </c>
+      <c r="X16">
+        <v>0.3664207768659478</v>
+      </c>
+      <c r="Y16">
+        <v>0.4974613279758989</v>
+      </c>
+      <c r="Z16">
+        <v>0.2247306857292303</v>
+      </c>
+      <c r="AA16">
+        <v>0.1266179945075317</v>
+      </c>
+      <c r="AB16">
+        <v>0.503307100824552</v>
+      </c>
+      <c r="AC16">
+        <v>0.367652428748529</v>
+      </c>
+      <c r="AD16">
+        <v>0.5671473823393463</v>
+      </c>
+      <c r="AE16">
+        <v>0.245350023350487</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_test_by_question.xlsx
+++ b/Pre_test_by_question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>PRE Q1</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>2020 112</t>
+  </si>
+  <si>
+    <t>2021 111</t>
   </si>
   <si>
     <t>mean</t>
@@ -506,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,94 +612,94 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.4509803921568628</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="C2">
-        <v>0.3254901960784314</v>
+        <v>0.5424836601307189</v>
       </c>
       <c r="D2">
-        <v>0.4117647058823529</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="E2">
-        <v>0.2509803921568627</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="F2">
-        <v>0.203921568627451</v>
+        <v>0.3398692810457516</v>
       </c>
       <c r="G2">
-        <v>0.4862745098039216</v>
+        <v>0.8104575163398693</v>
       </c>
       <c r="H2">
-        <v>0.4235294117647059</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="I2">
-        <v>0.4117647058823529</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="J2">
-        <v>0.3058823529411765</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L2">
-        <v>0.2156862745098039</v>
+        <v>0.3594771241830065</v>
       </c>
       <c r="M2">
+        <v>0.8169934640522876</v>
+      </c>
+      <c r="N2">
+        <v>0.3660130718954248</v>
+      </c>
+      <c r="O2">
+        <v>0.5163398692810458</v>
+      </c>
+      <c r="P2">
+        <v>0.3856209150326798</v>
+      </c>
+      <c r="Q2">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="R2">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="S2">
+        <v>0.4052287581699346</v>
+      </c>
+      <c r="T2">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="U2">
+        <v>0.6535947712418301</v>
+      </c>
+      <c r="V2">
+        <v>0.477124183006536</v>
+      </c>
+      <c r="W2">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="X2">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y2">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="Z2">
+        <v>0.3660130718954248</v>
+      </c>
+      <c r="AA2">
+        <v>0.2091503267973856</v>
+      </c>
+      <c r="AB2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC2">
         <v>0.4901960784313725</v>
       </c>
-      <c r="N2">
-        <v>0.2196078431372549</v>
-      </c>
-      <c r="O2">
-        <v>0.3098039215686275</v>
-      </c>
-      <c r="P2">
-        <v>0.2313725490196079</v>
-      </c>
-      <c r="Q2">
-        <v>0.4352941176470588</v>
-      </c>
-      <c r="R2">
-        <v>0.1411764705882353</v>
-      </c>
-      <c r="S2">
-        <v>0.2431372549019608</v>
-      </c>
-      <c r="T2">
-        <v>0.3647058823529412</v>
-      </c>
-      <c r="U2">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="V2">
-        <v>0.2862745098039216</v>
-      </c>
-      <c r="W2">
-        <v>0.3176470588235294</v>
-      </c>
-      <c r="X2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Y2">
-        <v>0.4352941176470588</v>
-      </c>
-      <c r="Z2">
-        <v>0.2196078431372549</v>
-      </c>
-      <c r="AA2">
-        <v>0.1254901960784314</v>
-      </c>
-      <c r="AB2">
-        <v>0.4</v>
-      </c>
-      <c r="AC2">
-        <v>0.2941176470588235</v>
-      </c>
       <c r="AD2">
-        <v>0.4313725490196079</v>
+        <v>0.7189542483660131</v>
       </c>
       <c r="AE2">
-        <v>0.1607843137254902</v>
+        <v>0.2679738562091503</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -704,94 +707,94 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.3858267716535433</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="C3">
-        <v>0.2322834645669291</v>
+        <v>0.2864077669902912</v>
       </c>
       <c r="D3">
-        <v>0.3818897637795275</v>
+        <v>0.470873786407767</v>
       </c>
       <c r="E3">
-        <v>0.2086614173228346</v>
+        <v>0.2572815533980582</v>
       </c>
       <c r="F3">
-        <v>0.06692913385826772</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="G3">
-        <v>0.4921259842519685</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="H3">
-        <v>0.3976377952755906</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="I3">
-        <v>0.2637795275590551</v>
+        <v>0.325242718446602</v>
       </c>
       <c r="J3">
-        <v>0.2480314960629921</v>
+        <v>0.3058252427184466</v>
       </c>
       <c r="K3">
-        <v>0.4094488188976378</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="L3">
-        <v>0.08661417322834646</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="M3">
-        <v>0.5275590551181102</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="N3">
-        <v>0.09055118110236221</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="O3">
-        <v>0.2913385826771653</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="P3">
-        <v>0.2007874015748032</v>
+        <v>0.2475728155339806</v>
       </c>
       <c r="Q3">
-        <v>0.405511811023622</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>0.08267716535433071</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="S3">
-        <v>0.09055118110236221</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="T3">
-        <v>0.3622047244094488</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="U3">
-        <v>0.3818897637795275</v>
+        <v>0.470873786407767</v>
       </c>
       <c r="V3">
-        <v>0.3307086614173229</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="W3">
-        <v>0.3031496062992126</v>
+        <v>0.3737864077669903</v>
       </c>
       <c r="X3">
-        <v>0.2716535433070866</v>
+        <v>0.3349514563106796</v>
       </c>
       <c r="Y3">
-        <v>0.5078740157480315</v>
+        <v>0.6262135922330098</v>
       </c>
       <c r="Z3">
-        <v>0.1102362204724409</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="AA3">
-        <v>0.03937007874015748</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="AB3">
-        <v>0.437007874015748</v>
+        <v>0.5388349514563107</v>
       </c>
       <c r="AC3">
-        <v>0.1811023622047244</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="AD3">
-        <v>0.4291338582677166</v>
+        <v>0.529126213592233</v>
       </c>
       <c r="AE3">
-        <v>0.07874015748031496</v>
+        <v>0.0970873786407767</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -799,94 +802,94 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.7255813953488373</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="C4">
-        <v>0.4604651162790698</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="D4">
-        <v>0.6744186046511628</v>
+        <v>0.6839622641509434</v>
       </c>
       <c r="E4">
-        <v>0.2790697674418605</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="F4">
-        <v>0.2744186046511628</v>
+        <v>0.2783018867924528</v>
       </c>
       <c r="G4">
-        <v>0.7767441860465116</v>
+        <v>0.7877358490566038</v>
       </c>
       <c r="H4">
-        <v>0.6930232558139535</v>
+        <v>0.7028301886792453</v>
       </c>
       <c r="I4">
-        <v>0.6325581395348837</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="J4">
-        <v>0.4418604651162791</v>
+        <v>0.4481132075471698</v>
       </c>
       <c r="K4">
-        <v>0.6744186046511628</v>
+        <v>0.6839622641509434</v>
       </c>
       <c r="L4">
-        <v>0.2744186046511628</v>
+        <v>0.2783018867924528</v>
       </c>
       <c r="M4">
-        <v>0.8046511627906977</v>
+        <v>0.8160377358490566</v>
       </c>
       <c r="N4">
-        <v>0.3395348837209302</v>
+        <v>0.3443396226415094</v>
       </c>
       <c r="O4">
-        <v>0.4604651162790698</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="P4">
-        <v>0.3395348837209302</v>
+        <v>0.3443396226415094</v>
       </c>
       <c r="Q4">
-        <v>0.6186046511627907</v>
+        <v>0.6273584905660378</v>
       </c>
       <c r="R4">
-        <v>0.172093023255814</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="S4">
-        <v>0.2744186046511628</v>
+        <v>0.2783018867924528</v>
       </c>
       <c r="T4">
-        <v>0.586046511627907</v>
+        <v>0.5943396226415094</v>
       </c>
       <c r="U4">
-        <v>0.5813953488372093</v>
+        <v>0.589622641509434</v>
       </c>
       <c r="V4">
-        <v>0.427906976744186</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="W4">
-        <v>0.4604651162790698</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="X4">
-        <v>0.4837209302325581</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="Y4">
-        <v>0.7116279069767442</v>
+        <v>0.7216981132075472</v>
       </c>
       <c r="Z4">
-        <v>0.2651162790697674</v>
+        <v>0.2688679245283019</v>
       </c>
       <c r="AA4">
-        <v>0.1627906976744186</v>
+        <v>0.1650943396226415</v>
       </c>
       <c r="AB4">
-        <v>0.6279069767441861</v>
+        <v>0.6367924528301887</v>
       </c>
       <c r="AC4">
-        <v>0.3953488372093023</v>
+        <v>0.4009433962264151</v>
       </c>
       <c r="AD4">
-        <v>0.6744186046511628</v>
+        <v>0.6839622641509434</v>
       </c>
       <c r="AE4">
-        <v>0.2325581395348837</v>
+        <v>0.2358490566037736</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -894,94 +897,94 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>0.4372759856630825</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="C5">
-        <v>0.2186379928315412</v>
+        <v>0.2552301255230126</v>
       </c>
       <c r="D5">
-        <v>0.4408602150537634</v>
+        <v>0.5146443514644351</v>
       </c>
       <c r="E5">
-        <v>0.1863799283154122</v>
+        <v>0.2175732217573222</v>
       </c>
       <c r="F5">
-        <v>0.1182795698924731</v>
+        <v>0.1380753138075314</v>
       </c>
       <c r="G5">
-        <v>0.5555555555555556</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="H5">
-        <v>0.4982078853046595</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="I5">
-        <v>0.3763440860215054</v>
+        <v>0.4393305439330544</v>
       </c>
       <c r="J5">
-        <v>0.2544802867383513</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="K5">
-        <v>0.3727598566308244</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L5">
-        <v>0.09677419354838709</v>
+        <v>0.1129707112970711</v>
       </c>
       <c r="M5">
-        <v>0.4838709677419355</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="N5">
-        <v>0.08602150537634409</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="O5">
-        <v>0.2114695340501792</v>
+        <v>0.2468619246861925</v>
       </c>
       <c r="P5">
-        <v>0.1684587813620072</v>
+        <v>0.196652719665272</v>
       </c>
       <c r="Q5">
-        <v>0.4050179211469534</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="R5">
-        <v>0.07168458781362007</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="S5">
-        <v>0.1039426523297491</v>
+        <v>0.1213389121338912</v>
       </c>
       <c r="T5">
-        <v>0.4372759856630825</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="U5">
-        <v>0.4480286738351255</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="V5">
-        <v>0.3189964157706093</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="W5">
-        <v>0.2724014336917563</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="X5">
-        <v>0.2688172043010753</v>
+        <v>0.3138075313807531</v>
       </c>
       <c r="Y5">
-        <v>0.5089605734767025</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="Z5">
-        <v>0.1290322580645161</v>
+        <v>0.1506276150627615</v>
       </c>
       <c r="AA5">
-        <v>0.05734767025089606</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="AB5">
-        <v>0.4408602150537634</v>
+        <v>0.5146443514644351</v>
       </c>
       <c r="AC5">
-        <v>0.2114695340501792</v>
+        <v>0.2468619246861925</v>
       </c>
       <c r="AD5">
-        <v>0.4336917562724014</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="AE5">
-        <v>0.1362007168458781</v>
+        <v>0.1589958158995816</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -989,94 +992,94 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>0.6363636363636364</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C6">
-        <v>0.4145454545454546</v>
+        <v>0.430188679245283</v>
       </c>
       <c r="D6">
-        <v>0.6690909090909091</v>
+        <v>0.6943396226415094</v>
       </c>
       <c r="E6">
-        <v>0.3418181818181818</v>
+        <v>0.3547169811320754</v>
       </c>
       <c r="F6">
-        <v>0.3090909090909091</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="H6">
-        <v>0.7381818181818182</v>
+        <v>0.7660377358490567</v>
       </c>
       <c r="I6">
-        <v>0.6254545454545455</v>
+        <v>0.6490566037735849</v>
       </c>
       <c r="J6">
-        <v>0.4472727272727273</v>
+        <v>0.4641509433962264</v>
       </c>
       <c r="K6">
-        <v>0.6690909090909091</v>
+        <v>0.6943396226415094</v>
       </c>
       <c r="L6">
-        <v>0.3418181818181818</v>
+        <v>0.3547169811320754</v>
       </c>
       <c r="M6">
-        <v>0.8363636363636363</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="N6">
-        <v>0.4218181818181818</v>
+        <v>0.4377358490566038</v>
       </c>
       <c r="O6">
-        <v>0.4436363636363637</v>
+        <v>0.460377358490566</v>
       </c>
       <c r="P6">
-        <v>0.3672727272727273</v>
+        <v>0.3811320754716981</v>
       </c>
       <c r="Q6">
-        <v>0.6618181818181819</v>
+        <v>0.6867924528301886</v>
       </c>
       <c r="R6">
-        <v>0.24</v>
+        <v>0.2490566037735849</v>
       </c>
       <c r="S6">
-        <v>0.3418181818181818</v>
+        <v>0.3547169811320754</v>
       </c>
       <c r="T6">
-        <v>0.5127272727272727</v>
+        <v>0.5320754716981132</v>
       </c>
       <c r="U6">
-        <v>0.52</v>
+        <v>0.539622641509434</v>
       </c>
       <c r="V6">
-        <v>0.4290909090909091</v>
+        <v>0.4452830188679245</v>
       </c>
       <c r="W6">
-        <v>0.4436363636363637</v>
+        <v>0.460377358490566</v>
       </c>
       <c r="X6">
-        <v>0.4472727272727273</v>
+        <v>0.4641509433962264</v>
       </c>
       <c r="Y6">
-        <v>0.6472727272727272</v>
+        <v>0.6716981132075471</v>
       </c>
       <c r="Z6">
-        <v>0.2727272727272727</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="AA6">
-        <v>0.1527272727272727</v>
+        <v>0.1584905660377358</v>
       </c>
       <c r="AB6">
-        <v>0.5818181818181818</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="AC6">
-        <v>0.4363636363636363</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="AD6">
-        <v>0.68</v>
+        <v>0.7056603773584905</v>
       </c>
       <c r="AE6">
-        <v>0.2909090909090909</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1084,94 +1087,94 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>0.4158075601374571</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="C7">
-        <v>0.3024054982817869</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="D7">
-        <v>0.4845360824742268</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="E7">
-        <v>0.2749140893470791</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F7">
-        <v>0.1237113402061856</v>
+        <v>0.125</v>
       </c>
       <c r="G7">
-        <v>0.6219931271477663</v>
+        <v>0.6284722222222222</v>
       </c>
       <c r="H7">
-        <v>0.5051546391752577</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="I7">
-        <v>0.4467353951890035</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="J7">
-        <v>0.2852233676975945</v>
+        <v>0.2881944444444444</v>
       </c>
       <c r="K7">
-        <v>0.3883161512027491</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="L7">
-        <v>0.154639175257732</v>
+        <v>0.15625</v>
       </c>
       <c r="M7">
-        <v>0.6494845360824743</v>
+        <v>0.65625</v>
       </c>
       <c r="N7">
-        <v>0.1718213058419244</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="O7">
-        <v>0.3402061855670103</v>
+        <v>0.34375</v>
       </c>
       <c r="P7">
-        <v>0.2508591065292096</v>
+        <v>0.2534722222222222</v>
       </c>
       <c r="Q7">
-        <v>0.5360824742268041</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="R7">
-        <v>0.09278350515463918</v>
+        <v>0.09375</v>
       </c>
       <c r="S7">
-        <v>0.1580756013745704</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="T7">
-        <v>0.4639175257731959</v>
+        <v>0.46875</v>
       </c>
       <c r="U7">
-        <v>0.4639175257731959</v>
+        <v>0.46875</v>
       </c>
       <c r="V7">
-        <v>0.3092783505154639</v>
+        <v>0.3125</v>
       </c>
       <c r="W7">
-        <v>0.3298969072164948</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="X7">
-        <v>0.3092783505154639</v>
+        <v>0.3125</v>
       </c>
       <c r="Y7">
-        <v>0.5017182130584192</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="Z7">
-        <v>0.1615120274914089</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="AA7">
-        <v>0.05498281786941581</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AB7">
-        <v>0.5085910652920962</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="AC7">
-        <v>0.2611683848797251</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="AD7">
-        <v>0.4845360824742268</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="AE7">
-        <v>0.1099656357388316</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1179,94 +1182,94 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.4470198675496689</v>
+        <v>0.7180851063829787</v>
       </c>
       <c r="C8">
-        <v>0.3245033112582781</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="D8">
-        <v>0.4139072847682119</v>
+        <v>0.6648936170212766</v>
       </c>
       <c r="E8">
-        <v>0.2649006622516556</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="F8">
-        <v>0.2052980132450331</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="G8">
-        <v>0.5066225165562914</v>
+        <v>0.8138297872340425</v>
       </c>
       <c r="H8">
-        <v>0.466887417218543</v>
+        <v>0.75</v>
       </c>
       <c r="I8">
-        <v>0.3973509933774834</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="J8">
-        <v>0.2847682119205298</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="K8">
-        <v>0.4172185430463576</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L8">
-        <v>0.2086092715231788</v>
+        <v>0.3351063829787234</v>
       </c>
       <c r="M8">
-        <v>0.5231788079470199</v>
+        <v>0.8404255319148937</v>
       </c>
       <c r="N8">
-        <v>0.2980132450331126</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="O8">
-        <v>0.3178807947019868</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="P8">
-        <v>0.2417218543046358</v>
+        <v>0.3882978723404255</v>
       </c>
       <c r="Q8">
-        <v>0.4768211920529801</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="R8">
-        <v>0.1622516556291391</v>
+        <v>0.2606382978723404</v>
       </c>
       <c r="S8">
-        <v>0.2748344370860927</v>
+        <v>0.4414893617021277</v>
       </c>
       <c r="T8">
-        <v>0.4403973509933775</v>
+        <v>0.7074468085106383</v>
       </c>
       <c r="U8">
-        <v>0.4105960264900662</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="V8">
-        <v>0.2880794701986755</v>
+        <v>0.4627659574468085</v>
       </c>
       <c r="W8">
-        <v>0.3311258278145696</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="X8">
-        <v>0.3377483443708609</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="Y8">
-        <v>0.4370860927152318</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="Z8">
-        <v>0.2119205298013245</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="AA8">
-        <v>0.152317880794702</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="AB8">
-        <v>0.423841059602649</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="AC8">
-        <v>0.3609271523178808</v>
+        <v>0.5797872340425532</v>
       </c>
       <c r="AD8">
-        <v>0.4503311258278146</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="AE8">
-        <v>0.2516556291390729</v>
+        <v>0.4042553191489361</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1274,94 +1277,94 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.3856041131105398</v>
+        <v>0.5576208178438662</v>
       </c>
       <c r="C9">
-        <v>0.1979434447300771</v>
+        <v>0.2862453531598513</v>
       </c>
       <c r="D9">
-        <v>0.3084832904884319</v>
+        <v>0.4460966542750929</v>
       </c>
       <c r="E9">
-        <v>0.1876606683804627</v>
+        <v>0.2713754646840149</v>
       </c>
       <c r="F9">
-        <v>0.115681233933162</v>
+        <v>0.1672862453531599</v>
       </c>
       <c r="G9">
-        <v>0.4344473007712082</v>
+        <v>0.6282527881040892</v>
       </c>
       <c r="H9">
-        <v>0.3881748071979435</v>
+        <v>0.5613382899628253</v>
       </c>
       <c r="I9">
-        <v>0.3419023136246787</v>
+        <v>0.4944237918215613</v>
       </c>
       <c r="J9">
-        <v>0.2802056555269923</v>
+        <v>0.4052044609665427</v>
       </c>
       <c r="K9">
-        <v>0.3419023136246787</v>
+        <v>0.4944237918215613</v>
       </c>
       <c r="L9">
-        <v>0.1182519280205656</v>
+        <v>0.171003717472119</v>
       </c>
       <c r="M9">
-        <v>0.4858611825192802</v>
+        <v>0.7026022304832714</v>
       </c>
       <c r="N9">
-        <v>0.141388174807198</v>
+        <v>0.2044609665427509</v>
       </c>
       <c r="O9">
-        <v>0.2210796915167095</v>
+        <v>0.3197026022304832</v>
       </c>
       <c r="P9">
-        <v>0.1799485861182519</v>
+        <v>0.2602230483271376</v>
       </c>
       <c r="Q9">
-        <v>0.3958868894601543</v>
+        <v>0.5724907063197026</v>
       </c>
       <c r="R9">
-        <v>0.08483290488431877</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="S9">
-        <v>0.1285347043701799</v>
+        <v>0.1858736059479554</v>
       </c>
       <c r="T9">
-        <v>0.4010282776349615</v>
+        <v>0.5799256505576208</v>
       </c>
       <c r="U9">
-        <v>0.3830334190231363</v>
+        <v>0.5539033457249071</v>
       </c>
       <c r="V9">
-        <v>0.2210796915167095</v>
+        <v>0.3197026022304832</v>
       </c>
       <c r="W9">
-        <v>0.2133676092544987</v>
+        <v>0.3085501858736059</v>
       </c>
       <c r="X9">
-        <v>0.2210796915167095</v>
+        <v>0.3197026022304832</v>
       </c>
       <c r="Y9">
-        <v>0.3958868894601543</v>
+        <v>0.5724907063197026</v>
       </c>
       <c r="Z9">
-        <v>0.09768637532133675</v>
+        <v>0.1412639405204461</v>
       </c>
       <c r="AA9">
-        <v>0.04884318766066838</v>
+        <v>0.07063197026022305</v>
       </c>
       <c r="AB9">
-        <v>0.3393316195372751</v>
+        <v>0.4907063197026023</v>
       </c>
       <c r="AC9">
-        <v>0.1799485861182519</v>
+        <v>0.2602230483271376</v>
       </c>
       <c r="AD9">
-        <v>0.3881748071979435</v>
+        <v>0.5613382899628253</v>
       </c>
       <c r="AE9">
-        <v>0.1336760925449871</v>
+        <v>0.1933085501858736</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1369,94 +1372,94 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.5729166666666666</v>
+        <v>0.6145251396648045</v>
       </c>
       <c r="C10">
-        <v>0.3697916666666667</v>
+        <v>0.3966480446927375</v>
       </c>
       <c r="D10">
-        <v>0.5677083333333334</v>
+        <v>0.6089385474860335</v>
       </c>
       <c r="E10">
-        <v>0.390625</v>
+        <v>0.4189944134078212</v>
       </c>
       <c r="F10">
-        <v>0.28125</v>
+        <v>0.3016759776536313</v>
       </c>
       <c r="G10">
-        <v>0.7239583333333334</v>
+        <v>0.776536312849162</v>
       </c>
       <c r="H10">
-        <v>0.703125</v>
+        <v>0.7541899441340782</v>
       </c>
       <c r="I10">
-        <v>0.6197916666666666</v>
+        <v>0.664804469273743</v>
       </c>
       <c r="J10">
-        <v>0.4791666666666667</v>
+        <v>0.5139664804469274</v>
       </c>
       <c r="K10">
-        <v>0.5989583333333334</v>
+        <v>0.6424581005586593</v>
       </c>
       <c r="L10">
-        <v>0.296875</v>
+        <v>0.3184357541899441</v>
       </c>
       <c r="M10">
-        <v>0.7708333333333334</v>
+        <v>0.8268156424581006</v>
       </c>
       <c r="N10">
-        <v>0.3489583333333333</v>
+        <v>0.3743016759776536</v>
       </c>
       <c r="O10">
-        <v>0.421875</v>
+        <v>0.4525139664804469</v>
       </c>
       <c r="P10">
-        <v>0.3697916666666667</v>
+        <v>0.3966480446927375</v>
       </c>
       <c r="Q10">
-        <v>0.65625</v>
+        <v>0.7039106145251397</v>
       </c>
       <c r="R10">
-        <v>0.234375</v>
+        <v>0.2513966480446927</v>
       </c>
       <c r="S10">
-        <v>0.3645833333333333</v>
+        <v>0.3910614525139665</v>
       </c>
       <c r="T10">
-        <v>0.546875</v>
+        <v>0.5865921787709497</v>
       </c>
       <c r="U10">
-        <v>0.46875</v>
+        <v>0.5027932960893855</v>
       </c>
       <c r="V10">
-        <v>0.421875</v>
+        <v>0.4525139664804469</v>
       </c>
       <c r="W10">
-        <v>0.4739583333333333</v>
+        <v>0.5083798882681564</v>
       </c>
       <c r="X10">
-        <v>0.5260416666666666</v>
+        <v>0.5642458100558659</v>
       </c>
       <c r="Y10">
-        <v>0.6822916666666666</v>
+        <v>0.7318435754189944</v>
       </c>
       <c r="Z10">
-        <v>0.3072916666666667</v>
+        <v>0.329608938547486</v>
       </c>
       <c r="AA10">
-        <v>0.2135416666666667</v>
+        <v>0.2290502793296089</v>
       </c>
       <c r="AB10">
-        <v>0.65625</v>
+        <v>0.7039106145251397</v>
       </c>
       <c r="AC10">
-        <v>0.4895833333333333</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="AD10">
-        <v>0.6822916666666666</v>
+        <v>0.7318435754189944</v>
       </c>
       <c r="AE10">
-        <v>0.2864583333333333</v>
+        <v>0.3072625698324022</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1559,94 +1562,94 @@
         <v>40</v>
       </c>
       <c r="B12">
-        <v>0.6681818181818182</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C12">
-        <v>0.4454545454545454</v>
+        <v>0.460093896713615</v>
       </c>
       <c r="D12">
-        <v>0.6727272727272727</v>
+        <v>0.6948356807511737</v>
       </c>
       <c r="E12">
-        <v>0.4636363636363636</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="F12">
-        <v>0.3272727272727273</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="G12">
-        <v>0.7772727272727272</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="H12">
-        <v>0.6818181818181818</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="I12">
-        <v>0.6045454545454545</v>
+        <v>0.6244131455399061</v>
       </c>
       <c r="J12">
-        <v>0.4454545454545454</v>
+        <v>0.460093896713615</v>
       </c>
       <c r="K12">
-        <v>0.6727272727272727</v>
+        <v>0.6948356807511737</v>
       </c>
       <c r="L12">
-        <v>0.3681818181818182</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="M12">
-        <v>0.8136363636363636</v>
+        <v>0.8403755868544601</v>
       </c>
       <c r="N12">
-        <v>0.4090909090909091</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="O12">
-        <v>0.4954545454545455</v>
+        <v>0.5117370892018779</v>
       </c>
       <c r="P12">
-        <v>0.4090909090909091</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="Q12">
-        <v>0.7090909090909091</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="R12">
-        <v>0.2454545454545455</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="S12">
-        <v>0.4090909090909091</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="T12">
-        <v>0.6772727272727272</v>
+        <v>0.6995305164319249</v>
       </c>
       <c r="U12">
-        <v>0.6681818181818182</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="V12">
-        <v>0.4590909090909091</v>
+        <v>0.4741784037558686</v>
       </c>
       <c r="W12">
-        <v>0.4909090909090909</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="X12">
-        <v>0.5045454545454545</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="Y12">
-        <v>0.7090909090909091</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="Z12">
-        <v>0.3363636363636364</v>
+        <v>0.3474178403755869</v>
       </c>
       <c r="AA12">
-        <v>0.2136363636363636</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="AB12">
-        <v>0.6681818181818182</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="AC12">
-        <v>0.5272727272727272</v>
+        <v>0.5446009389671361</v>
       </c>
       <c r="AD12">
-        <v>0.7454545454545455</v>
+        <v>0.7699530516431925</v>
       </c>
       <c r="AE12">
-        <v>0.3045454545454546</v>
+        <v>0.3145539906103286</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1654,94 +1657,94 @@
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.4405797101449275</v>
+        <v>0.4825396825396825</v>
       </c>
       <c r="C13">
-        <v>0.3159420289855073</v>
+        <v>0.346031746031746</v>
       </c>
       <c r="D13">
-        <v>0.4608695652173913</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="E13">
-        <v>0.2840579710144928</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="F13">
-        <v>0.1159420289855072</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="G13">
-        <v>0.6231884057971014</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="H13">
-        <v>0.4840579710144928</v>
+        <v>0.5301587301587302</v>
       </c>
       <c r="I13">
-        <v>0.4057971014492754</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J13">
-        <v>0.3101449275362319</v>
+        <v>0.3396825396825397</v>
       </c>
       <c r="K13">
-        <v>0.527536231884058</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L13">
-        <v>0.1652173913043478</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="M13">
-        <v>0.6376811594202898</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="N13">
-        <v>0.1710144927536232</v>
+        <v>0.1873015873015873</v>
       </c>
       <c r="O13">
-        <v>0.5043478260869565</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="P13">
-        <v>0.2463768115942029</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="Q13">
-        <v>0.4898550724637681</v>
+        <v>0.5365079365079365</v>
       </c>
       <c r="R13">
-        <v>0.08405797101449275</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="S13">
-        <v>0.1681159420289855</v>
+        <v>0.1841269841269841</v>
       </c>
       <c r="T13">
-        <v>0.5971014492753624</v>
+        <v>0.653968253968254</v>
       </c>
       <c r="U13">
-        <v>0.5072463768115942</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V13">
-        <v>0.3159420289855073</v>
+        <v>0.346031746031746</v>
       </c>
       <c r="W13">
-        <v>0.2753623188405797</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="X13">
-        <v>0.2869565217391304</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="Y13">
-        <v>0.5507246376811594</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="Z13">
-        <v>0.1565217391304348</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="AA13">
-        <v>0.05507246376811594</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="AB13">
-        <v>0.5159420289855072</v>
+        <v>0.5650793650793651</v>
       </c>
       <c r="AC13">
-        <v>0.2782608695652174</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="AD13">
-        <v>0.5072463768115942</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AE13">
-        <v>0.1565217391304348</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1749,94 +1752,94 @@
         <v>42</v>
       </c>
       <c r="B14">
-        <v>0.6932270916334662</v>
+        <v>0.7219917012448133</v>
       </c>
       <c r="C14">
-        <v>0.4262948207171315</v>
+        <v>0.4439834024896265</v>
       </c>
       <c r="D14">
-        <v>0.5697211155378487</v>
+        <v>0.5933609958506224</v>
       </c>
       <c r="E14">
-        <v>0.5776892430278885</v>
+        <v>0.6016597510373444</v>
       </c>
       <c r="F14">
-        <v>0.2430278884462151</v>
+        <v>0.2531120331950207</v>
       </c>
       <c r="G14">
-        <v>0.6055776892430279</v>
+        <v>0.6307053941908713</v>
       </c>
       <c r="H14">
-        <v>0.6733067729083665</v>
+        <v>0.7012448132780082</v>
       </c>
       <c r="I14">
-        <v>0.2111553784860558</v>
+        <v>0.2199170124481328</v>
       </c>
       <c r="J14">
-        <v>0.5896414342629482</v>
+        <v>0.6141078838174274</v>
       </c>
       <c r="K14">
-        <v>0.4382470119521912</v>
+        <v>0.4564315352697095</v>
       </c>
       <c r="L14">
-        <v>0.2709163346613546</v>
+        <v>0.2821576763485477</v>
       </c>
       <c r="M14">
-        <v>0.4900398406374502</v>
+        <v>0.5103734439834025</v>
       </c>
       <c r="N14">
-        <v>0.2191235059760956</v>
+        <v>0.2282157676348548</v>
       </c>
       <c r="O14">
-        <v>0.5816733067729084</v>
+        <v>0.6058091286307054</v>
       </c>
       <c r="P14">
-        <v>0.3227091633466135</v>
+        <v>0.3360995850622407</v>
       </c>
       <c r="Q14">
-        <v>0.4422310756972112</v>
+        <v>0.4605809128630705</v>
       </c>
       <c r="R14">
-        <v>0.2948207171314741</v>
+        <v>0.3070539419087137</v>
       </c>
       <c r="S14">
-        <v>0.1952191235059761</v>
+        <v>0.2033195020746888</v>
       </c>
       <c r="T14">
-        <v>0.3107569721115538</v>
+        <v>0.3236514522821577</v>
       </c>
       <c r="U14">
-        <v>0.2908366533864542</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="V14">
-        <v>0.2430278884462151</v>
+        <v>0.2531120331950207</v>
       </c>
       <c r="W14">
-        <v>0.6932270916334662</v>
+        <v>0.7219917012448133</v>
       </c>
       <c r="X14">
-        <v>0.4462151394422311</v>
+        <v>0.4647302904564315</v>
       </c>
       <c r="Y14">
-        <v>0.203187250996016</v>
+        <v>0.2116182572614108</v>
       </c>
       <c r="Z14">
-        <v>0.450199203187251</v>
+        <v>0.4688796680497925</v>
       </c>
       <c r="AA14">
-        <v>0.2589641434262948</v>
+        <v>0.2697095435684647</v>
       </c>
       <c r="AB14">
-        <v>0.4860557768924303</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="AC14">
-        <v>0.6812749003984063</v>
+        <v>0.7095435684647303</v>
       </c>
       <c r="AD14">
-        <v>0.8286852589641435</v>
+        <v>0.8630705394190872</v>
       </c>
       <c r="AE14">
-        <v>0.6055776892430279</v>
+        <v>0.6307053941908713</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1844,94 +1847,94 @@
         <v>43</v>
       </c>
       <c r="B15">
-        <v>0.5261780104712042</v>
+        <v>0.5388739946380697</v>
       </c>
       <c r="C15">
-        <v>0.2146596858638743</v>
+        <v>0.2198391420911528</v>
       </c>
       <c r="D15">
-        <v>0.4136125654450262</v>
+        <v>0.4235924932975871</v>
       </c>
       <c r="E15">
-        <v>0.4319371727748691</v>
+        <v>0.4423592493297587</v>
       </c>
       <c r="F15">
-        <v>0.2329842931937173</v>
+        <v>0.2386058981233244</v>
       </c>
       <c r="G15">
-        <v>0.5785340314136126</v>
+        <v>0.5924932975871313</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.5120643431635389</v>
       </c>
       <c r="I15">
-        <v>0.2041884816753927</v>
+        <v>0.2091152815013405</v>
       </c>
       <c r="J15">
-        <v>0.4764397905759162</v>
+        <v>0.4879356568364611</v>
       </c>
       <c r="K15">
-        <v>0.2591623036649215</v>
+        <v>0.2654155495978552</v>
       </c>
       <c r="L15">
-        <v>0.1989528795811518</v>
+        <v>0.2037533512064343</v>
       </c>
       <c r="M15">
-        <v>0.4869109947643979</v>
+        <v>0.4986595174262735</v>
       </c>
       <c r="N15">
-        <v>0.1361256544502618</v>
+        <v>0.1394101876675603</v>
       </c>
       <c r="O15">
-        <v>0.3664921465968586</v>
+        <v>0.3753351206434316</v>
       </c>
       <c r="P15">
-        <v>0.2225130890052356</v>
+        <v>0.2278820375335121</v>
       </c>
       <c r="Q15">
-        <v>0.2670157068062827</v>
+        <v>0.2734584450402145</v>
       </c>
       <c r="R15">
-        <v>0.1727748691099476</v>
+        <v>0.1769436997319035</v>
       </c>
       <c r="S15">
-        <v>0.1492146596858639</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="T15">
-        <v>0.2068062827225131</v>
+        <v>0.2117962466487936</v>
       </c>
       <c r="U15">
-        <v>0.1780104712041885</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="V15">
-        <v>0.1387434554973822</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="W15">
-        <v>0.5654450261780105</v>
+        <v>0.579088471849866</v>
       </c>
       <c r="X15">
-        <v>0.3848167539267016</v>
+        <v>0.3941018766756032</v>
       </c>
       <c r="Y15">
-        <v>0.1282722513089005</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="Z15">
-        <v>0.2722513089005236</v>
+        <v>0.2788203753351207</v>
       </c>
       <c r="AA15">
-        <v>0.1596858638743456</v>
+        <v>0.1635388739946381</v>
       </c>
       <c r="AB15">
-        <v>0.3717277486910995</v>
+        <v>0.3806970509383378</v>
       </c>
       <c r="AC15">
-        <v>0.5418848167539267</v>
+        <v>0.5549597855227882</v>
       </c>
       <c r="AD15">
-        <v>0.643979057591623</v>
+        <v>0.6595174262734584</v>
       </c>
       <c r="AE15">
-        <v>0.5471204188481675</v>
+        <v>0.5603217158176944</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1939,94 +1942,189 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <v>0.5205071893914617</v>
+        <v>0.6784313725490196</v>
       </c>
       <c r="C16">
-        <v>0.3232625566598205</v>
+        <v>0.4627450980392157</v>
       </c>
       <c r="D16">
-        <v>0.4934887174927184</v>
+        <v>0.5725490196078431</v>
       </c>
       <c r="E16">
-        <v>0.3179101480315168</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="F16">
-        <v>0.1985572200623726</v>
+        <v>0.3372549019607843</v>
       </c>
       <c r="G16">
-        <v>0.6186730066464089</v>
+        <v>0.7490196078431373</v>
       </c>
       <c r="H16">
-        <v>0.5492093214889181</v>
+        <v>0.7137254901960784</v>
       </c>
       <c r="I16">
-        <v>0.4267421140228525</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="J16">
-        <v>0.3690234955084818</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="K16">
-        <v>0.469849002798544</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>0.2111309807827806</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.618844180046823</v>
+        <v>0.7686274509803922</v>
       </c>
       <c r="N16">
-        <v>0.2271996480813822</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O16">
-        <v>0.3776139492179774</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="P16">
-        <v>0.2725167883852831</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="Q16">
-        <v>0.5065271652945139</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R16">
-        <v>0.1558418681220224</v>
+        <v>0.2980392156862745</v>
       </c>
       <c r="S16">
-        <v>0.2214938237371304</v>
+        <v>0.3490196078431372</v>
       </c>
       <c r="T16">
-        <v>0.4666631562045291</v>
+        <v>0.6</v>
       </c>
       <c r="U16">
-        <v>0.4485509087142055</v>
+        <v>0.5137254901960784</v>
       </c>
       <c r="V16">
-        <v>0.3253271605990158</v>
+        <v>0.4392156862745098</v>
       </c>
       <c r="W16">
-        <v>0.3902447624911219</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="X16">
-        <v>0.3664207768659478</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="Y16">
-        <v>0.4974613279758989</v>
+        <v>0.7019607843137254</v>
       </c>
       <c r="Z16">
-        <v>0.2247306857292303</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="AA16">
-        <v>0.1266179945075317</v>
+        <v>0.207843137254902</v>
       </c>
       <c r="AB16">
-        <v>0.503307100824552</v>
+        <v>0.6431372549019608</v>
       </c>
       <c r="AC16">
-        <v>0.367652428748529</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="AD16">
-        <v>0.5671473823393463</v>
+        <v>0.6627450980392157</v>
       </c>
       <c r="AE16">
-        <v>0.245350023350487</v>
+        <v>0.2745098039215687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>0.6038635993086383</v>
+      </c>
+      <c r="C17">
+        <v>0.3800645843640768</v>
+      </c>
+      <c r="D17">
+        <v>0.5658639411534695</v>
+      </c>
+      <c r="E17">
+        <v>0.3660343217468531</v>
+      </c>
+      <c r="F17">
+        <v>0.2359502550845746</v>
+      </c>
+      <c r="G17">
+        <v>0.7111671630557103</v>
+      </c>
+      <c r="H17">
+        <v>0.6346547115072225</v>
+      </c>
+      <c r="I17">
+        <v>0.5029846623197438</v>
+      </c>
+      <c r="J17">
+        <v>0.426636646942223</v>
+      </c>
+      <c r="K17">
+        <v>0.5502434689260857</v>
+      </c>
+      <c r="L17">
+        <v>0.2488277074136457</v>
+      </c>
+      <c r="M17">
+        <v>0.7148258817309628</v>
+      </c>
+      <c r="N17">
+        <v>0.2686517693907912</v>
+      </c>
+      <c r="O17">
+        <v>0.4339459789169571</v>
+      </c>
+      <c r="P17">
+        <v>0.3222625651221478</v>
+      </c>
+      <c r="Q17">
+        <v>0.5931462830767381</v>
+      </c>
+      <c r="R17">
+        <v>0.1868926346373227</v>
+      </c>
+      <c r="S17">
+        <v>0.2640384621206173</v>
+      </c>
+      <c r="T17">
+        <v>0.5432766503905018</v>
+      </c>
+      <c r="U17">
+        <v>0.5194699579976535</v>
+      </c>
+      <c r="V17">
+        <v>0.3802079282062313</v>
+      </c>
+      <c r="W17">
+        <v>0.451106969895491</v>
+      </c>
+      <c r="X17">
+        <v>0.4255361284177097</v>
+      </c>
+      <c r="Y17">
+        <v>0.5852223535089571</v>
+      </c>
+      <c r="Z17">
+        <v>0.2612599612548909</v>
+      </c>
+      <c r="AA17">
+        <v>0.1498727397833596</v>
+      </c>
+      <c r="AB17">
+        <v>0.5816088348919185</v>
+      </c>
+      <c r="AC17">
+        <v>0.4237096590707509</v>
+      </c>
+      <c r="AD17">
+        <v>0.6481158695074339</v>
+      </c>
+      <c r="AE17">
+        <v>0.2779624561294213</v>
       </c>
     </row>
   </sheetData>
